--- a/exam2/excel/OLS_IV.xlsx
+++ b/exam2/excel/OLS_IV.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="476" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="476" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="44">
   <si>
     <t>Country</t>
   </si>
@@ -243,1836 +244,1836 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE2" activeCellId="0" sqref="AE2"/>
+      <selection pane="bottomRight" activeCell="S16" activeCellId="0" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>247</v>
+      </c>
       <c r="D2" s="0" t="n">
-        <v>247</v>
+        <f aca="false">SUM(C$2:C$6)/COUNT(C$2:C$6)</f>
+        <v>181.8</v>
       </c>
       <c r="E2" s="0" t="n">
-        <f aca="false">SUM(D$2:D$6)/COUNT(D$2:D$6)</f>
-        <v>181.8</v>
+        <f aca="false">C2-D2</f>
+        <v>65.2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <f aca="false">D2-E2</f>
-        <v>65.2</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G2" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E2-F2)^2</f>
+        <v>4251.04</v>
       </c>
       <c r="H2" s="0" t="n">
-        <f aca="false">(F2-G2)^2</f>
-        <v>4251.04</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I2" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>6</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>6</v>
+        <f aca="false">SUM(I$2:I$6)/COUNT(I$2:I$6)</f>
+        <v>6.6</v>
       </c>
       <c r="K2" s="0" t="n">
-        <f aca="false">SUM(J$2:J$6)/COUNT(J$2:J$6)</f>
-        <v>6.6</v>
+        <f aca="false">I2-J2</f>
+        <v>-0.6</v>
       </c>
       <c r="L2" s="0" t="n">
-        <f aca="false">J2-K2</f>
-        <v>-0.6</v>
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
       </c>
       <c r="M2" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
+        <f aca="false">(K2-L2)^2</f>
+        <v>0.36</v>
       </c>
       <c r="N2" s="0" t="n">
-        <f aca="false">(L2-M2)^2</f>
-        <v>0.36</v>
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
       </c>
       <c r="O2" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
+        <f aca="false">(E2-F2)*(K2-L2)</f>
+        <v>-39.12</v>
       </c>
       <c r="P2" s="0" t="n">
-        <f aca="false">(F2-G2)*(L2-M2)</f>
-        <v>-39.12</v>
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
+        <f aca="false">P2/N2</f>
+        <v>-66</v>
       </c>
       <c r="R2" s="0" t="n">
-        <f aca="false">Q2/O2</f>
-        <v>-66</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
         <v>617.4</v>
       </c>
-      <c r="AA2" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
+      <c r="Z2" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
         <v>0.0833333333333333</v>
       </c>
+      <c r="AB2" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
+      </c>
       <c r="AC2" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB2/Z2</f>
+        <v>-62.5</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <f aca="false">AC2/AA2</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>594.3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>234</v>
+      </c>
       <c r="D3" s="0" t="n">
-        <v>234</v>
+        <f aca="false">SUM(C$2:C$6)/COUNT(C$2:C$6)</f>
+        <v>181.8</v>
       </c>
       <c r="E3" s="0" t="n">
-        <f aca="false">SUM(D$2:D$6)/COUNT(D$2:D$6)</f>
-        <v>181.8</v>
+        <f aca="false">C3-D3</f>
+        <v>52.2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <f aca="false">D3-E3</f>
-        <v>52.2</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G3" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E3-F3)^2</f>
+        <v>2724.84</v>
       </c>
       <c r="H3" s="0" t="n">
-        <f aca="false">(F3-G3)^2</f>
-        <v>2724.84</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I3" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>6</v>
       </c>
       <c r="J3" s="0" t="n">
+        <f aca="false">SUM(I$2:I$6)/COUNT(I$2:I$6)</f>
+        <v>6.6</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">I3-J3</f>
+        <v>-0.6</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">(K3-L3)^2</f>
+        <v>0.36</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">(E3-F3)*(K3-L3)</f>
+        <v>-31.32</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">P3/N3</f>
+        <v>-66</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>617.4</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">I2</f>
         <v>6</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <f aca="false">SUM(J$2:J$6)/COUNT(J$2:J$6)</f>
-        <v>6.6</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <f aca="false">J3-K3</f>
-        <v>-0.6</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <f aca="false">(L3-M3)^2</f>
-        <v>0.36</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <f aca="false">(F3-G3)*(L3-M3)</f>
-        <v>-31.32</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <f aca="false">Q3/O3</f>
-        <v>-66</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>617.4</v>
-      </c>
       <c r="T3" s="0" t="n">
-        <f aca="false">J2</f>
-        <v>6</v>
+        <f aca="false">SUM(S$2:S$6)/COUNT(S$2:S$6)</f>
+        <v>6.5</v>
       </c>
       <c r="U3" s="0" t="n">
-        <f aca="false">SUM(T$2:T$6)/COUNT(T$2:T$6)</f>
-        <v>6.5</v>
+        <f aca="false">S3-T3</f>
+        <v>-0.5</v>
       </c>
       <c r="V3" s="0" t="n">
-        <f aca="false">T3-U3</f>
-        <v>-0.5</v>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
+        <v>0</v>
       </c>
       <c r="W3" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
-        <v>0</v>
+        <f aca="false">(U3-V3)^2</f>
+        <v>0.25</v>
       </c>
       <c r="X3" s="0" t="n">
-        <f aca="false">(V3-W3)^2</f>
-        <v>0.25</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K3-L3)*(U3-V3)</f>
+        <v>0.3</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <f aca="false">(L3-M3)*(V3-W3)</f>
-        <v>0.3</v>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
+        <f aca="false">(E3-F3)*(U3-V3)</f>
+        <v>-26.1</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <f aca="false">(F3-G3)*(V3-W3)</f>
-        <v>-26.1</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB3/Z3</f>
+        <v>-62.5</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <f aca="false">AC3/AA3</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE3" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>594.3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>145</v>
+      </c>
       <c r="D4" s="0" t="n">
-        <v>145</v>
+        <f aca="false">SUM(C$2:C$6)/COUNT(C$2:C$6)</f>
+        <v>181.8</v>
       </c>
       <c r="E4" s="0" t="n">
-        <f aca="false">SUM(D$2:D$6)/COUNT(D$2:D$6)</f>
-        <v>181.8</v>
+        <f aca="false">C4-D4</f>
+        <v>-36.8</v>
       </c>
       <c r="F4" s="0" t="n">
-        <f aca="false">D4-E4</f>
-        <v>-36.8</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G4" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E4-F4)^2</f>
+        <v>1354.24</v>
       </c>
       <c r="H4" s="0" t="n">
-        <f aca="false">(F4-G4)^2</f>
-        <v>1354.24</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I4" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>7</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>7</v>
+        <f aca="false">SUM(I$2:I$6)/COUNT(I$2:I$6)</f>
+        <v>6.6</v>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="false">SUM(J$2:J$6)/COUNT(J$2:J$6)</f>
-        <v>6.6</v>
+        <f aca="false">I4-J4</f>
+        <v>0.4</v>
       </c>
       <c r="L4" s="0" t="n">
-        <f aca="false">J4-K4</f>
-        <v>0.4</v>
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
       </c>
       <c r="M4" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
+        <f aca="false">(K4-L4)^2</f>
+        <v>0.16</v>
       </c>
       <c r="N4" s="0" t="n">
-        <f aca="false">(L4-M4)^2</f>
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
         <v>0.16</v>
       </c>
       <c r="O4" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
+        <f aca="false">(E4-F4)*(K4-L4)</f>
+        <v>-14.72</v>
       </c>
       <c r="P4" s="0" t="n">
-        <f aca="false">(F4-G4)*(L4-M4)</f>
-        <v>-14.72</v>
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
+        <f aca="false">P4/N4</f>
+        <v>-66</v>
       </c>
       <c r="R4" s="0" t="n">
-        <f aca="false">Q4/O4</f>
-        <v>-66</v>
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>617.4</v>
       </c>
       <c r="S4" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>617.4</v>
+        <f aca="false">I3</f>
+        <v>6</v>
       </c>
       <c r="T4" s="0" t="n">
-        <f aca="false">J3</f>
-        <v>6</v>
+        <f aca="false">SUM(S$2:S$6)/COUNT(S$2:S$6)</f>
+        <v>6.5</v>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="false">SUM(T$2:T$6)/COUNT(T$2:T$6)</f>
-        <v>6.5</v>
+        <f aca="false">S4-T4</f>
+        <v>-0.5</v>
       </c>
       <c r="V4" s="0" t="n">
-        <f aca="false">T4-U4</f>
-        <v>-0.5</v>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
+        <v>0</v>
       </c>
       <c r="W4" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
-        <v>0</v>
+        <f aca="false">(U4-V4)^2</f>
+        <v>0.25</v>
       </c>
       <c r="X4" s="0" t="n">
-        <f aca="false">(V4-W4)^2</f>
-        <v>0.25</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K4-L4)*(U4-V4)</f>
+        <v>-0.2</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <f aca="false">(L4-M4)*(V4-W4)</f>
-        <v>-0.2</v>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
+        <f aca="false">(E4-F4)*(U4-V4)</f>
+        <v>18.4</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <f aca="false">(F4-G4)*(V4-W4)</f>
-        <v>18.4</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB4/Z4</f>
+        <v>-62.5</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <f aca="false">AC4/AA4</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>594.3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>145</v>
+      </c>
       <c r="D5" s="0" t="n">
-        <v>145</v>
+        <f aca="false">SUM(C$2:C$6)/COUNT(C$2:C$6)</f>
+        <v>181.8</v>
       </c>
       <c r="E5" s="0" t="n">
-        <f aca="false">SUM(D$2:D$6)/COUNT(D$2:D$6)</f>
-        <v>181.8</v>
+        <f aca="false">C5-D5</f>
+        <v>-36.8</v>
       </c>
       <c r="F5" s="0" t="n">
-        <f aca="false">D5-E5</f>
-        <v>-36.8</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G5" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E5-F5)^2</f>
+        <v>1354.24</v>
       </c>
       <c r="H5" s="0" t="n">
-        <f aca="false">(F5-G5)^2</f>
-        <v>1354.24</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I5" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>7</v>
       </c>
       <c r="J5" s="0" t="n">
+        <f aca="false">SUM(I$2:I$6)/COUNT(I$2:I$6)</f>
+        <v>6.6</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">I5-J5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">(K5-L5)^2</f>
+        <v>0.16</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">(E5-F5)*(K5-L5)</f>
+        <v>-14.72</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">P5/N5</f>
+        <v>-66</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>617.4</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">I4</f>
         <v>7</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">SUM(J$2:J$6)/COUNT(J$2:J$6)</f>
-        <v>6.6</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <f aca="false">J5-K5</f>
-        <v>0.4</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <f aca="false">(L5-M5)^2</f>
-        <v>0.16</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <f aca="false">(F5-G5)*(L5-M5)</f>
-        <v>-14.72</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <f aca="false">Q5/O5</f>
-        <v>-66</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>617.4</v>
-      </c>
       <c r="T5" s="0" t="n">
-        <f aca="false">J4</f>
-        <v>7</v>
+        <f aca="false">SUM(S$2:S$6)/COUNT(S$2:S$6)</f>
+        <v>6.5</v>
       </c>
       <c r="U5" s="0" t="n">
-        <f aca="false">SUM(T$2:T$6)/COUNT(T$2:T$6)</f>
-        <v>6.5</v>
+        <f aca="false">S5-T5</f>
+        <v>0.5</v>
       </c>
       <c r="V5" s="0" t="n">
-        <f aca="false">T5-U5</f>
-        <v>0.5</v>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
+        <v>0</v>
       </c>
       <c r="W5" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
-        <v>0</v>
+        <f aca="false">(U5-V5)^2</f>
+        <v>0.25</v>
       </c>
       <c r="X5" s="0" t="n">
-        <f aca="false">(V5-W5)^2</f>
-        <v>0.25</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K5-L5)*(U5-V5)</f>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <f aca="false">(L5-M5)*(V5-W5)</f>
-        <v>0.2</v>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
+        <f aca="false">(E5-F5)*(U5-V5)</f>
+        <v>-18.4</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <f aca="false">(F5-G5)*(V5-W5)</f>
-        <v>-18.4</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB5/Z5</f>
+        <v>-62.5</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <f aca="false">AC5/AA5</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE5" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>594.3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>138</v>
+      </c>
       <c r="D6" s="0" t="n">
-        <v>138</v>
+        <f aca="false">SUM(C$2:C$6)/COUNT(C$2:C$6)</f>
+        <v>181.8</v>
       </c>
       <c r="E6" s="0" t="n">
-        <f aca="false">SUM(D$2:D$6)/COUNT(D$2:D$6)</f>
-        <v>181.8</v>
+        <f aca="false">C6-D6</f>
+        <v>-43.8</v>
       </c>
       <c r="F6" s="0" t="n">
-        <f aca="false">D6-E6</f>
-        <v>-43.8</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G6" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E6-F6)^2</f>
+        <v>1918.44</v>
       </c>
       <c r="H6" s="0" t="n">
-        <f aca="false">(F6-G6)^2</f>
-        <v>1918.44</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I6" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>7</v>
       </c>
       <c r="J6" s="0" t="n">
+        <f aca="false">SUM(I$2:I$6)/COUNT(I$2:I$6)</f>
+        <v>6.6</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">I6-J6</f>
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">(K6-L6)^2</f>
+        <v>0.16</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">(E6-F6)*(K6-L6)</f>
+        <v>-17.52</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">P6/N6</f>
+        <v>-66</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>617.4</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">I5</f>
         <v>7</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">SUM(J$2:J$6)/COUNT(J$2:J$6)</f>
-        <v>6.6</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <f aca="false">J6-K6</f>
-        <v>0.4</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <f aca="false">(L6-M6)^2</f>
-        <v>0.16</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <f aca="false">(F6-G6)*(L6-M6)</f>
-        <v>-17.52</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <f aca="false">Q6/O6</f>
-        <v>-66</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>617.4</v>
-      </c>
       <c r="T6" s="0" t="n">
-        <f aca="false">J5</f>
-        <v>7</v>
+        <f aca="false">SUM(S$2:S$6)/COUNT(S$2:S$6)</f>
+        <v>6.5</v>
       </c>
       <c r="U6" s="0" t="n">
-        <f aca="false">SUM(T$2:T$6)/COUNT(T$2:T$6)</f>
-        <v>6.5</v>
+        <f aca="false">S6-T6</f>
+        <v>0.5</v>
       </c>
       <c r="V6" s="0" t="n">
-        <f aca="false">T6-U6</f>
-        <v>0.5</v>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
+        <v>0</v>
       </c>
       <c r="W6" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
-        <v>0</v>
+        <f aca="false">(U6-V6)^2</f>
+        <v>0.25</v>
       </c>
       <c r="X6" s="0" t="n">
-        <f aca="false">(V6-W6)^2</f>
-        <v>0.25</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K6-L6)*(U6-V6)</f>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <f aca="false">(L6-M6)*(V6-W6)</f>
-        <v>0.2</v>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
+        <f aca="false">(E6-F6)*(U6-V6)</f>
+        <v>-21.9</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <f aca="false">(F6-G6)*(V6-W6)</f>
-        <v>-21.9</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB6/Z6</f>
+        <v>-62.5</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <f aca="false">AC6/AA6</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>594.3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>74</v>
+      </c>
       <c r="D7" s="0" t="n">
-        <v>74</v>
+        <f aca="false">SUM(C$7:C$11)/COUNT(C$7:C$11)</f>
+        <v>37</v>
       </c>
       <c r="E7" s="0" t="n">
-        <f aca="false">SUM(D$7:D$11)/COUNT(D$7:D$11)</f>
+        <f aca="false">C7-D7</f>
         <v>37</v>
       </c>
       <c r="F7" s="0" t="n">
-        <f aca="false">D7-E7</f>
-        <v>37</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G7" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E7-F7)^2</f>
+        <v>1369</v>
       </c>
       <c r="H7" s="0" t="n">
-        <f aca="false">(F7-G7)^2</f>
-        <v>1369</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I7" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(I$7:I$11)/COUNT(I$7:I$11)</f>
+        <v>0.6</v>
       </c>
       <c r="K7" s="0" t="n">
-        <f aca="false">SUM(J$7:J$11)/COUNT(J$7:J$11)</f>
-        <v>0.6</v>
+        <f aca="false">I7-J7</f>
+        <v>-0.6</v>
       </c>
       <c r="L7" s="0" t="n">
-        <f aca="false">J7-K7</f>
-        <v>-0.6</v>
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
       </c>
       <c r="M7" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
+        <f aca="false">(K7-L7)^2</f>
+        <v>0.36</v>
       </c>
       <c r="N7" s="0" t="n">
-        <f aca="false">(L7-M7)^2</f>
-        <v>0.36</v>
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
       </c>
       <c r="O7" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
+        <f aca="false">(E7-F7)*(K7-L7)</f>
+        <v>-22.2</v>
       </c>
       <c r="P7" s="0" t="n">
-        <f aca="false">(F7-G7)*(L7-M7)</f>
-        <v>-22.2</v>
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
+        <f aca="false">P7/N7</f>
+        <v>-66</v>
       </c>
       <c r="R7" s="0" t="n">
-        <f aca="false">Q7/O7</f>
-        <v>-66</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
         <v>76.6</v>
       </c>
-      <c r="AA7" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
+      <c r="Z7" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
         <v>0.0833333333333333</v>
       </c>
+      <c r="AB7" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
+      </c>
       <c r="AC7" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB7/Z7</f>
+        <v>-62.5</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <f aca="false">AC7/AA7</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE7" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>74.5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>41</v>
+      </c>
       <c r="D8" s="0" t="n">
-        <v>41</v>
+        <f aca="false">SUM(C$7:C$11)/COUNT(C$7:C$11)</f>
+        <v>37</v>
       </c>
       <c r="E8" s="0" t="n">
-        <f aca="false">SUM(D$7:D$11)/COUNT(D$7:D$11)</f>
-        <v>37</v>
+        <f aca="false">C8-D8</f>
+        <v>4</v>
       </c>
       <c r="F8" s="0" t="n">
-        <f aca="false">D8-E8</f>
-        <v>4</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G8" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E8-F8)^2</f>
+        <v>16</v>
       </c>
       <c r="H8" s="0" t="n">
-        <f aca="false">(F8-G8)^2</f>
-        <v>16</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I8" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(I$7:I$11)/COUNT(I$7:I$11)</f>
+        <v>0.6</v>
       </c>
       <c r="K8" s="0" t="n">
-        <f aca="false">SUM(J$7:J$11)/COUNT(J$7:J$11)</f>
-        <v>0.6</v>
+        <f aca="false">I8-J8</f>
+        <v>-0.6</v>
       </c>
       <c r="L8" s="0" t="n">
-        <f aca="false">J8-K8</f>
-        <v>-0.6</v>
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
       </c>
       <c r="M8" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
+        <f aca="false">(K8-L8)^2</f>
+        <v>0.36</v>
       </c>
       <c r="N8" s="0" t="n">
-        <f aca="false">(L8-M8)^2</f>
-        <v>0.36</v>
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
       </c>
       <c r="O8" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
+        <f aca="false">(E8-F8)*(K8-L8)</f>
+        <v>-2.4</v>
       </c>
       <c r="P8" s="0" t="n">
-        <f aca="false">(F8-G8)*(L8-M8)</f>
-        <v>-2.4</v>
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
+        <f aca="false">P8/N8</f>
+        <v>-66</v>
       </c>
       <c r="R8" s="0" t="n">
-        <f aca="false">Q8/O8</f>
-        <v>-66</v>
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>76.6</v>
       </c>
       <c r="S8" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>76.6</v>
+        <f aca="false">I7</f>
+        <v>0</v>
       </c>
       <c r="T8" s="0" t="n">
-        <f aca="false">J7</f>
-        <v>0</v>
+        <f aca="false">SUM(S$7:S$11)/COUNT(S$7:S$11)</f>
+        <v>0.5</v>
       </c>
       <c r="U8" s="0" t="n">
-        <f aca="false">SUM(T$7:T$11)/COUNT(T$7:T$11)</f>
-        <v>0.5</v>
+        <f aca="false">S8-T8</f>
+        <v>-0.5</v>
       </c>
       <c r="V8" s="0" t="n">
-        <f aca="false">T8-U8</f>
-        <v>-0.5</v>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
+        <v>0</v>
       </c>
       <c r="W8" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
-        <v>0</v>
+        <f aca="false">(U8-V8)^2</f>
+        <v>0.25</v>
       </c>
       <c r="X8" s="0" t="n">
-        <f aca="false">(V8-W8)^2</f>
-        <v>0.25</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K8-L8)*(U8-V8)</f>
+        <v>0.3</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <f aca="false">(L8-M8)*(V8-W8)</f>
-        <v>0.3</v>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
+        <f aca="false">(E8-F8)*(U8-V8)</f>
+        <v>-2</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <f aca="false">(F8-G8)*(V8-W8)</f>
-        <v>-2</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB8/Z8</f>
+        <v>-62.5</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <f aca="false">AC8/AA8</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>74.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>29</v>
+      </c>
       <c r="D9" s="0" t="n">
-        <v>29</v>
+        <f aca="false">SUM(C$7:C$11)/COUNT(C$7:C$11)</f>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="n">
-        <f aca="false">SUM(D$7:D$11)/COUNT(D$7:D$11)</f>
-        <v>37</v>
+        <f aca="false">C9-D9</f>
+        <v>-8</v>
       </c>
       <c r="F9" s="0" t="n">
-        <f aca="false">D9-E9</f>
-        <v>-8</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G9" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E9-F9)^2</f>
+        <v>63.9999999999999</v>
       </c>
       <c r="H9" s="0" t="n">
-        <f aca="false">(F9-G9)^2</f>
-        <v>63.9999999999999</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I9" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>1</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1</v>
+        <f aca="false">SUM(I$7:I$11)/COUNT(I$7:I$11)</f>
+        <v>0.6</v>
       </c>
       <c r="K9" s="0" t="n">
-        <f aca="false">SUM(J$7:J$11)/COUNT(J$7:J$11)</f>
-        <v>0.6</v>
+        <f aca="false">I9-J9</f>
+        <v>0.4</v>
       </c>
       <c r="L9" s="0" t="n">
-        <f aca="false">J9-K9</f>
-        <v>0.4</v>
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
       </c>
       <c r="M9" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
+        <f aca="false">(K9-L9)^2</f>
+        <v>0.16</v>
       </c>
       <c r="N9" s="0" t="n">
-        <f aca="false">(L9-M9)^2</f>
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
         <v>0.16</v>
       </c>
       <c r="O9" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
+        <f aca="false">(E9-F9)*(K9-L9)</f>
+        <v>-3.2</v>
       </c>
       <c r="P9" s="0" t="n">
-        <f aca="false">(F9-G9)*(L9-M9)</f>
-        <v>-3.2</v>
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
+        <f aca="false">P9/N9</f>
+        <v>-66</v>
       </c>
       <c r="R9" s="0" t="n">
-        <f aca="false">Q9/O9</f>
-        <v>-66</v>
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>76.6</v>
       </c>
       <c r="S9" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>76.6</v>
+        <f aca="false">I8</f>
+        <v>0</v>
       </c>
       <c r="T9" s="0" t="n">
-        <f aca="false">J8</f>
-        <v>0</v>
+        <f aca="false">SUM(S$7:S$11)/COUNT(S$7:S$11)</f>
+        <v>0.5</v>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="false">SUM(T$7:T$11)/COUNT(T$7:T$11)</f>
-        <v>0.5</v>
+        <f aca="false">S9-T9</f>
+        <v>-0.5</v>
       </c>
       <c r="V9" s="0" t="n">
-        <f aca="false">T9-U9</f>
-        <v>-0.5</v>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
+        <v>0</v>
       </c>
       <c r="W9" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
-        <v>0</v>
+        <f aca="false">(U9-V9)^2</f>
+        <v>0.25</v>
       </c>
       <c r="X9" s="0" t="n">
-        <f aca="false">(V9-W9)^2</f>
-        <v>0.25</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K9-L9)*(U9-V9)</f>
+        <v>-0.2</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <f aca="false">(L9-M9)*(V9-W9)</f>
-        <v>-0.2</v>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
+        <f aca="false">(E9-F9)*(U9-V9)</f>
+        <v>4</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <f aca="false">(F9-G9)*(V9-W9)</f>
-        <v>4</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB9/Z9</f>
+        <v>-62.5</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <f aca="false">AC9/AA9</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE9" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>74.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="D10" s="0" t="n">
-        <v>17</v>
+        <f aca="false">SUM(C$7:C$11)/COUNT(C$7:C$11)</f>
+        <v>37</v>
       </c>
       <c r="E10" s="0" t="n">
-        <f aca="false">SUM(D$7:D$11)/COUNT(D$7:D$11)</f>
-        <v>37</v>
+        <f aca="false">C10-D10</f>
+        <v>-20</v>
       </c>
       <c r="F10" s="0" t="n">
-        <f aca="false">D10-E10</f>
-        <v>-20</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G10" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E10-F10)^2</f>
+        <v>400</v>
       </c>
       <c r="H10" s="0" t="n">
-        <f aca="false">(F10-G10)^2</f>
-        <v>400</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I10" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>1</v>
       </c>
       <c r="J10" s="0" t="n">
+        <f aca="false">SUM(I$7:I$11)/COUNT(I$7:I$11)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">I10-J10</f>
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">(K10-L10)^2</f>
+        <v>0.16</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">(E10-F10)*(K10-L10)</f>
+        <v>-8</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">P10/N10</f>
+        <v>-66</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>76.6</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">I9</f>
         <v>1</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <f aca="false">SUM(J$7:J$11)/COUNT(J$7:J$11)</f>
-        <v>0.6</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <f aca="false">J10-K10</f>
-        <v>0.4</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <f aca="false">(L10-M10)^2</f>
-        <v>0.16</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <f aca="false">(F10-G10)*(L10-M10)</f>
-        <v>-8</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <f aca="false">Q10/O10</f>
-        <v>-66</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>76.6</v>
-      </c>
       <c r="T10" s="0" t="n">
-        <f aca="false">J9</f>
-        <v>1</v>
+        <f aca="false">SUM(S$7:S$11)/COUNT(S$7:S$11)</f>
+        <v>0.5</v>
       </c>
       <c r="U10" s="0" t="n">
-        <f aca="false">SUM(T$7:T$11)/COUNT(T$7:T$11)</f>
+        <f aca="false">S10-T10</f>
         <v>0.5</v>
       </c>
       <c r="V10" s="0" t="n">
-        <f aca="false">T10-U10</f>
-        <v>0.5</v>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
+        <v>0</v>
       </c>
       <c r="W10" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
-        <v>0</v>
+        <f aca="false">(U10-V10)^2</f>
+        <v>0.25</v>
       </c>
       <c r="X10" s="0" t="n">
-        <f aca="false">(V10-W10)^2</f>
-        <v>0.25</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K10-L10)*(U10-V10)</f>
+        <v>0.2</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <f aca="false">(L10-M10)*(V10-W10)</f>
-        <v>0.2</v>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
+        <f aca="false">(E10-F10)*(U10-V10)</f>
+        <v>-10</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <f aca="false">(F10-G10)*(V10-W10)</f>
-        <v>-10</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB10/Z10</f>
+        <v>-62.5</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <f aca="false">AC10/AA10</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE10" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>74.5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>24</v>
+      </c>
       <c r="D11" s="0" t="n">
-        <v>24</v>
+        <f aca="false">SUM(C$7:C$11)/COUNT(C$7:C$11)</f>
+        <v>37</v>
       </c>
       <c r="E11" s="0" t="n">
-        <f aca="false">SUM(D$7:D$11)/COUNT(D$7:D$11)</f>
-        <v>37</v>
+        <f aca="false">C11-D11</f>
+        <v>-13</v>
       </c>
       <c r="F11" s="0" t="n">
-        <f aca="false">D11-E11</f>
-        <v>-13</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G11" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E11-F11)^2</f>
+        <v>169</v>
       </c>
       <c r="H11" s="0" t="n">
-        <f aca="false">(F11-G11)^2</f>
-        <v>169</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I11" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>1</v>
       </c>
       <c r="J11" s="0" t="n">
+        <f aca="false">SUM(I$7:I$11)/COUNT(I$7:I$11)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">I11-J11</f>
+        <v>0.4</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">(K11-L11)^2</f>
+        <v>0.16</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">(E11-F11)*(K11-L11)</f>
+        <v>-5.2</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">P11/N11</f>
+        <v>-66</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>76.6</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">I10</f>
         <v>1</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <f aca="false">SUM(J$7:J$11)/COUNT(J$7:J$11)</f>
-        <v>0.6</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <f aca="false">J11-K11</f>
-        <v>0.4</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <f aca="false">(L11-M11)^2</f>
-        <v>0.16</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <f aca="false">(F11-G11)*(L11-M11)</f>
-        <v>-5.2</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <f aca="false">Q11/O11</f>
-        <v>-66</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>76.6</v>
-      </c>
       <c r="T11" s="0" t="n">
-        <f aca="false">J10</f>
-        <v>1</v>
+        <f aca="false">SUM(S$7:S$11)/COUNT(S$7:S$11)</f>
+        <v>0.5</v>
       </c>
       <c r="U11" s="0" t="n">
-        <f aca="false">SUM(T$7:T$11)/COUNT(T$7:T$11)</f>
+        <f aca="false">S11-T11</f>
         <v>0.5</v>
       </c>
       <c r="V11" s="0" t="n">
-        <f aca="false">T11-U11</f>
-        <v>0.5</v>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
+        <v>0</v>
       </c>
       <c r="W11" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
-        <v>0</v>
+        <f aca="false">(U11-V11)^2</f>
+        <v>0.25</v>
       </c>
       <c r="X11" s="0" t="n">
-        <f aca="false">(V11-W11)^2</f>
-        <v>0.25</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K11-L11)*(U11-V11)</f>
+        <v>0.2</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <f aca="false">(L11-M11)*(V11-W11)</f>
-        <v>0.2</v>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
+        <f aca="false">(E11-F11)*(U11-V11)</f>
+        <v>-6.5</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <f aca="false">(F11-G11)*(V11-W11)</f>
-        <v>-6.5</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB11/Z11</f>
+        <v>-62.5</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <f aca="false">AC11/AA11</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE11" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>74.5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>106</v>
+      </c>
       <c r="D12" s="0" t="n">
-        <v>106</v>
+        <f aca="false">SUM(C$12:C$16)/COUNT(C$12:C$16)</f>
+        <v>74.2</v>
       </c>
       <c r="E12" s="0" t="n">
-        <f aca="false">SUM(D$12:D$16)/COUNT(D$12:D$16)</f>
-        <v>74.2</v>
+        <f aca="false">C12-D12</f>
+        <v>31.8</v>
       </c>
       <c r="F12" s="0" t="n">
-        <f aca="false">D12-E12</f>
-        <v>31.8</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G12" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E12-F12)^2</f>
+        <v>1011.24</v>
       </c>
       <c r="H12" s="0" t="n">
-        <f aca="false">(F12-G12)^2</f>
-        <v>1011.24</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I12" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>3</v>
       </c>
       <c r="J12" s="0" t="n">
+        <f aca="false">SUM(I$12:I$16)/COUNT(I$12:I$16)</f>
         <v>3</v>
       </c>
       <c r="K12" s="0" t="n">
-        <f aca="false">SUM(J$12:J$16)/COUNT(J$12:J$16)</f>
-        <v>3</v>
+        <f aca="false">I12-J12</f>
+        <v>0</v>
       </c>
       <c r="L12" s="0" t="n">
-        <f aca="false">J12-K12</f>
-        <v>0</v>
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
       </c>
       <c r="M12" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
+        <f aca="false">(K12-L12)^2</f>
+        <v>1.58320001117272E-032</v>
       </c>
       <c r="N12" s="0" t="n">
-        <f aca="false">(L12-M12)^2</f>
-        <v>1.58320001117272E-032</v>
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
       </c>
       <c r="O12" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
+        <f aca="false">(E12-F12)*(K12-L12)</f>
+        <v>-4.00124378074906E-015</v>
       </c>
       <c r="P12" s="0" t="n">
-        <f aca="false">(F12-G12)*(L12-M12)</f>
-        <v>-4.00124378074905E-015</v>
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
+        <f aca="false">P12/N12</f>
+        <v>-66</v>
       </c>
       <c r="R12" s="0" t="n">
-        <f aca="false">Q12/O12</f>
-        <v>-66</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
         <v>272.2</v>
       </c>
-      <c r="AA12" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
+      <c r="Z12" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
         <v>0.0833333333333333</v>
       </c>
+      <c r="AB12" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
+      </c>
       <c r="AC12" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB12/Z12</f>
+        <v>-62.5</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <f aca="false">AC12/AA12</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>261.7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>75</v>
+      </c>
       <c r="D13" s="0" t="n">
-        <v>75</v>
+        <f aca="false">SUM(C$12:C$16)/COUNT(C$12:C$16)</f>
+        <v>74.2</v>
       </c>
       <c r="E13" s="0" t="n">
-        <f aca="false">SUM(D$12:D$16)/COUNT(D$12:D$16)</f>
-        <v>74.2</v>
+        <f aca="false">C13-D13</f>
+        <v>0.799999999999997</v>
       </c>
       <c r="F13" s="0" t="n">
-        <f aca="false">D13-E13</f>
-        <v>0.799999999999997</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G13" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E13-F13)^2</f>
+        <v>0.640000000000003</v>
       </c>
       <c r="H13" s="0" t="n">
-        <f aca="false">(F13-G13)^2</f>
-        <v>0.640000000000003</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I13" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>3</v>
       </c>
       <c r="J13" s="0" t="n">
+        <f aca="false">SUM(I$12:I$16)/COUNT(I$12:I$16)</f>
         <v>3</v>
       </c>
       <c r="K13" s="0" t="n">
-        <f aca="false">SUM(J$12:J$16)/COUNT(J$12:J$16)</f>
-        <v>3</v>
+        <f aca="false">I13-J13</f>
+        <v>0</v>
       </c>
       <c r="L13" s="0" t="n">
-        <f aca="false">J13-K13</f>
-        <v>0</v>
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
       </c>
       <c r="M13" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
+        <f aca="false">(K13-L13)^2</f>
+        <v>1.58320001117272E-032</v>
       </c>
       <c r="N13" s="0" t="n">
-        <f aca="false">(L13-M13)^2</f>
-        <v>1.58320001117272E-032</v>
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
       </c>
       <c r="O13" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
+        <f aca="false">(E13-F13)*(K13-L13)</f>
+        <v>-1.00660220899348E-016</v>
       </c>
       <c r="P13" s="0" t="n">
-        <f aca="false">(F13-G13)*(L13-M13)</f>
-        <v>-1.00660220899347E-016</v>
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
+        <f aca="false">P13/N13</f>
+        <v>-66</v>
       </c>
       <c r="R13" s="0" t="n">
-        <f aca="false">Q13/O13</f>
-        <v>-66</v>
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>272.2</v>
       </c>
       <c r="S13" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>272.2</v>
+        <f aca="false">I12</f>
+        <v>3</v>
       </c>
       <c r="T13" s="0" t="n">
-        <f aca="false">J12</f>
+        <f aca="false">SUM(S$12:S$16)/COUNT(S$12:S$16)</f>
         <v>3</v>
       </c>
       <c r="U13" s="0" t="n">
-        <f aca="false">SUM(T$12:T$16)/COUNT(T$12:T$16)</f>
-        <v>3</v>
+        <f aca="false">S13-T13</f>
+        <v>0</v>
       </c>
       <c r="V13" s="0" t="n">
-        <f aca="false">T13-U13</f>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
         <v>0</v>
       </c>
       <c r="W13" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
+        <f aca="false">(U13-V13)^2</f>
         <v>0</v>
       </c>
       <c r="X13" s="0" t="n">
-        <f aca="false">(V13-W13)^2</f>
-        <v>0</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K13-L13)*(U13-V13)</f>
+        <v>-0</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <f aca="false">(L13-M13)*(V13-W13)</f>
-        <v>-0</v>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
+        <f aca="false">(E13-F13)*(U13-V13)</f>
+        <v>0</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <f aca="false">(F13-G13)*(V13-W13)</f>
-        <v>0</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB13/Z13</f>
+        <v>-62.5</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <f aca="false">AC13/AA13</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE13" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>261.7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>59</v>
+      </c>
       <c r="D14" s="0" t="n">
-        <v>59</v>
+        <f aca="false">SUM(C$12:C$16)/COUNT(C$12:C$16)</f>
+        <v>74.2</v>
       </c>
       <c r="E14" s="0" t="n">
-        <f aca="false">SUM(D$12:D$16)/COUNT(D$12:D$16)</f>
-        <v>74.2</v>
+        <f aca="false">C14-D14</f>
+        <v>-15.2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <f aca="false">D14-E14</f>
-        <v>-15.2</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G14" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E14-F14)^2</f>
+        <v>231.04</v>
       </c>
       <c r="H14" s="0" t="n">
-        <f aca="false">(F14-G14)^2</f>
-        <v>231.04</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I14" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>3</v>
       </c>
       <c r="J14" s="0" t="n">
+        <f aca="false">SUM(I$12:I$16)/COUNT(I$12:I$16)</f>
         <v>3</v>
       </c>
       <c r="K14" s="0" t="n">
-        <f aca="false">SUM(J$12:J$16)/COUNT(J$12:J$16)</f>
-        <v>3</v>
+        <f aca="false">I14-J14</f>
+        <v>0</v>
       </c>
       <c r="L14" s="0" t="n">
-        <f aca="false">J14-K14</f>
-        <v>0</v>
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
       </c>
       <c r="M14" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
+        <f aca="false">(K14-L14)^2</f>
+        <v>1.58320001117272E-032</v>
       </c>
       <c r="N14" s="0" t="n">
-        <f aca="false">(L14-M14)^2</f>
-        <v>1.58320001117272E-032</v>
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
       </c>
       <c r="O14" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
+        <f aca="false">(E14-F14)*(K14-L14)</f>
+        <v>1.9125441970876E-015</v>
       </c>
       <c r="P14" s="0" t="n">
-        <f aca="false">(F14-G14)*(L14-M14)</f>
-        <v>1.9125441970876E-015</v>
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
+        <f aca="false">P14/N14</f>
+        <v>-66</v>
       </c>
       <c r="R14" s="0" t="n">
-        <f aca="false">Q14/O14</f>
-        <v>-66</v>
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>272.2</v>
       </c>
       <c r="S14" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>272.2</v>
+        <f aca="false">I13</f>
+        <v>3</v>
       </c>
       <c r="T14" s="0" t="n">
-        <f aca="false">J13</f>
+        <f aca="false">SUM(S$12:S$16)/COUNT(S$12:S$16)</f>
         <v>3</v>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="false">SUM(T$12:T$16)/COUNT(T$12:T$16)</f>
-        <v>3</v>
+        <f aca="false">S14-T14</f>
+        <v>0</v>
       </c>
       <c r="V14" s="0" t="n">
-        <f aca="false">T14-U14</f>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
         <v>0</v>
       </c>
       <c r="W14" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
+        <f aca="false">(U14-V14)^2</f>
         <v>0</v>
       </c>
       <c r="X14" s="0" t="n">
-        <f aca="false">(V14-W14)^2</f>
-        <v>0</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K14-L14)*(U14-V14)</f>
+        <v>-0</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <f aca="false">(L14-M14)*(V14-W14)</f>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <f aca="false">(E14-F14)*(U14-V14)</f>
         <v>-0</v>
       </c>
-      <c r="AA14" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
-      </c>
       <c r="AB14" s="0" t="n">
-        <f aca="false">(F14-G14)*(V14-W14)</f>
-        <v>-0</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB14/Z14</f>
+        <v>-62.5</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <f aca="false">AC14/AA14</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE14" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>261.7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>59</v>
+      </c>
       <c r="D15" s="0" t="n">
-        <v>59</v>
+        <f aca="false">SUM(C$12:C$16)/COUNT(C$12:C$16)</f>
+        <v>74.2</v>
       </c>
       <c r="E15" s="0" t="n">
-        <f aca="false">SUM(D$12:D$16)/COUNT(D$12:D$16)</f>
-        <v>74.2</v>
+        <f aca="false">C15-D15</f>
+        <v>-15.2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <f aca="false">D15-E15</f>
-        <v>-15.2</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G15" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E15-F15)^2</f>
+        <v>231.04</v>
       </c>
       <c r="H15" s="0" t="n">
-        <f aca="false">(F15-G15)^2</f>
-        <v>231.04</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I15" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>3</v>
       </c>
       <c r="J15" s="0" t="n">
+        <f aca="false">SUM(I$12:I$16)/COUNT(I$12:I$16)</f>
         <v>3</v>
       </c>
       <c r="K15" s="0" t="n">
-        <f aca="false">SUM(J$12:J$16)/COUNT(J$12:J$16)</f>
-        <v>3</v>
+        <f aca="false">I15-J15</f>
+        <v>0</v>
       </c>
       <c r="L15" s="0" t="n">
-        <f aca="false">J15-K15</f>
-        <v>0</v>
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
       </c>
       <c r="M15" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
+        <f aca="false">(K15-L15)^2</f>
+        <v>1.58320001117272E-032</v>
       </c>
       <c r="N15" s="0" t="n">
-        <f aca="false">(L15-M15)^2</f>
-        <v>1.58320001117272E-032</v>
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
       </c>
       <c r="O15" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
+        <f aca="false">(E15-F15)*(K15-L15)</f>
+        <v>1.9125441970876E-015</v>
       </c>
       <c r="P15" s="0" t="n">
-        <f aca="false">(F15-G15)*(L15-M15)</f>
-        <v>1.9125441970876E-015</v>
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
+        <f aca="false">P15/N15</f>
+        <v>-66</v>
       </c>
       <c r="R15" s="0" t="n">
-        <f aca="false">Q15/O15</f>
-        <v>-66</v>
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>272.2</v>
       </c>
       <c r="S15" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>272.2</v>
+        <f aca="false">I14</f>
+        <v>3</v>
       </c>
       <c r="T15" s="0" t="n">
-        <f aca="false">J14</f>
+        <f aca="false">SUM(S$12:S$16)/COUNT(S$12:S$16)</f>
         <v>3</v>
       </c>
       <c r="U15" s="0" t="n">
-        <f aca="false">SUM(T$12:T$16)/COUNT(T$12:T$16)</f>
-        <v>3</v>
+        <f aca="false">S15-T15</f>
+        <v>0</v>
       </c>
       <c r="V15" s="0" t="n">
-        <f aca="false">T15-U15</f>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
         <v>0</v>
       </c>
       <c r="W15" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
+        <f aca="false">(U15-V15)^2</f>
         <v>0</v>
       </c>
       <c r="X15" s="0" t="n">
-        <f aca="false">(V15-W15)^2</f>
-        <v>0</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K15-L15)*(U15-V15)</f>
+        <v>-0</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <f aca="false">(L15-M15)*(V15-W15)</f>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <f aca="false">(E15-F15)*(U15-V15)</f>
         <v>-0</v>
       </c>
-      <c r="AA15" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
-      </c>
       <c r="AB15" s="0" t="n">
-        <f aca="false">(F15-G15)*(V15-W15)</f>
-        <v>-0</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB15/Z15</f>
+        <v>-62.5</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <f aca="false">AC15/AA15</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE15" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>261.7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <v>72</v>
+      </c>
       <c r="D16" s="0" t="n">
-        <v>72</v>
+        <f aca="false">SUM(C$12:C$16)/COUNT(C$12:C$16)</f>
+        <v>74.2</v>
       </c>
       <c r="E16" s="0" t="n">
-        <f aca="false">SUM(D$12:D$16)/COUNT(D$12:D$16)</f>
-        <v>74.2</v>
+        <f aca="false">C16-D16</f>
+        <v>-2.2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <f aca="false">D16-E16</f>
-        <v>-2.2</v>
+        <f aca="false">SUM(E$2:E$16)/COUNT(E$2:E$16)</f>
+        <v>-4.736951571734E-015</v>
       </c>
       <c r="G16" s="0" t="n">
-        <f aca="false">SUM(F$2:F$16)/COUNT(F$2:F$16)</f>
-        <v>-4.736951571734E-015</v>
+        <f aca="false">(E16-F16)^2</f>
+        <v>4.83999999999999</v>
       </c>
       <c r="H16" s="0" t="n">
-        <f aca="false">(F16-G16)^2</f>
-        <v>4.83999999999999</v>
+        <f aca="false">SUM(G$2:G$16)/COUNT(G$2:G$16)</f>
+        <v>1006.64</v>
       </c>
       <c r="I16" s="0" t="n">
-        <f aca="false">SUM(H$2:H$16)/COUNT(H$2:H$16)</f>
-        <v>1006.64</v>
+        <v>3</v>
       </c>
       <c r="J16" s="0" t="n">
+        <f aca="false">SUM(I$12:I$16)/COUNT(I$12:I$16)</f>
         <v>3</v>
       </c>
       <c r="K16" s="0" t="n">
-        <f aca="false">SUM(J$12:J$16)/COUNT(J$12:J$16)</f>
-        <v>3</v>
+        <f aca="false">I16-J16</f>
+        <v>0</v>
       </c>
       <c r="L16" s="0" t="n">
-        <f aca="false">J16-K16</f>
-        <v>0</v>
+        <f aca="false">SUM(K$2:K$16)/COUNT(K$2:K$16)</f>
+        <v>1.25825276124184E-016</v>
       </c>
       <c r="M16" s="0" t="n">
-        <f aca="false">SUM(L$2:L$16)/COUNT(L$2:L$16)</f>
-        <v>1.25825276124184E-016</v>
+        <f aca="false">(K16-L16)^2</f>
+        <v>1.58320001117272E-032</v>
       </c>
       <c r="N16" s="0" t="n">
-        <f aca="false">(L16-M16)^2</f>
-        <v>1.58320001117272E-032</v>
+        <f aca="false">SUM(M$2:M$16)/COUNT(M$2:M$16)</f>
+        <v>0.16</v>
       </c>
       <c r="O16" s="0" t="n">
-        <f aca="false">SUM(N$2:N$16)/COUNT(N$2:N$16)</f>
-        <v>0.16</v>
+        <f aca="false">(E16-F16)*(K16-L16)</f>
+        <v>2.76815607473205E-016</v>
       </c>
       <c r="P16" s="0" t="n">
-        <f aca="false">(F16-G16)*(L16-M16)</f>
-        <v>2.76815607473204E-016</v>
+        <f aca="false">SUM(O$2:O$16)/COUNT(O$2:O$16)</f>
+        <v>-10.56</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <f aca="false">SUM(P$2:P$16)/COUNT(P$2:P$16)</f>
-        <v>-10.56</v>
+        <f aca="false">P16/N16</f>
+        <v>-66</v>
       </c>
       <c r="R16" s="0" t="n">
-        <f aca="false">Q16/O16</f>
-        <v>-66</v>
+        <f aca="false">D$2:D$16-(J$2:J$16*Q$2:Q$16)</f>
+        <v>272.2</v>
       </c>
       <c r="S16" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*R$2:R$16)</f>
-        <v>272.2</v>
+        <f aca="false">I15</f>
+        <v>3</v>
       </c>
       <c r="T16" s="0" t="n">
-        <f aca="false">J15</f>
+        <f aca="false">SUM(S$12:S$16)/COUNT(S$12:S$16)</f>
         <v>3</v>
       </c>
       <c r="U16" s="0" t="n">
-        <f aca="false">SUM(T$12:T$16)/COUNT(T$12:T$16)</f>
-        <v>3</v>
+        <f aca="false">S16-T16</f>
+        <v>0</v>
       </c>
       <c r="V16" s="0" t="n">
-        <f aca="false">T16-U16</f>
+        <f aca="false">SUM(U$2:U$16)/COUNT(U$2:U$16)</f>
         <v>0</v>
       </c>
       <c r="W16" s="0" t="n">
-        <f aca="false">SUM(V$2:V$16)/COUNT(V$2:V$16)</f>
+        <f aca="false">(U16-V16)^2</f>
         <v>0</v>
       </c>
       <c r="X16" s="0" t="n">
-        <f aca="false">(V16-W16)^2</f>
-        <v>0</v>
+        <f aca="false">SUM(W$2:W$16)/COUNT(W$2:W$16)</f>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <f aca="false">SUM(X$2:X$16)/COUNT(X$2:X$16)</f>
-        <v>0.166666666666667</v>
+        <f aca="false">(K16-L16)*(U16-V16)</f>
+        <v>-0</v>
       </c>
       <c r="Z16" s="0" t="n">
-        <f aca="false">(L16-M16)*(V16-W16)</f>
+        <f aca="false">SUM(Y$2:Y$16)/COUNT(Y$2:Y$16)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <f aca="false">(E16-F16)*(U16-V16)</f>
         <v>-0</v>
       </c>
-      <c r="AA16" s="0" t="n">
-        <f aca="false">SUM(Z$2:Z$16)/COUNT(Z$2:Z$16)</f>
-        <v>0.0833333333333333</v>
-      </c>
       <c r="AB16" s="0" t="n">
-        <f aca="false">(F16-G16)*(V16-W16)</f>
-        <v>-0</v>
+        <f aca="false">SUM(AA$2:AA$16)/COUNT(AA$2:AA$16)</f>
+        <v>-5.20833333333333</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <f aca="false">SUM(AB$2:AB$16)/COUNT(AB$2:AB$16)</f>
-        <v>-5.20833333333333</v>
+        <f aca="false">AB16/Z16</f>
+        <v>-62.5</v>
       </c>
       <c r="AD16" s="0" t="n">
-        <f aca="false">AC16/AA16</f>
-        <v>-62.5</v>
-      </c>
-      <c r="AE16" s="0" t="n">
-        <f aca="false">E$2:E$16-(K$2:K$16*AD$2:AD$16)</f>
+        <f aca="false">D$2:D$16-(J$2:J$16*AC$2:AC$16)</f>
         <v>261.7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="0" t="s">
+    <row r="18" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="N18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="P18" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AA18" s="0" t="s">
+      <c r="Z18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AC18" s="0" t="s">
+      <c r="AB18" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <f aca="false">_xlfn.VAR.P(F2:F16)</f>
+      <c r="H19" s="0" t="n">
+        <f aca="false">_xlfn.VAR.P(E2:E16)</f>
         <v>1006.64</v>
       </c>
-      <c r="O19" s="0" t="n">
-        <f aca="false">_xlfn.VAR.P(L2:L16)</f>
+      <c r="N19" s="0" t="n">
+        <f aca="false">_xlfn.VAR.P(K2:K16)</f>
         <v>0.16</v>
       </c>
-      <c r="Q19" s="0" t="n">
-        <f aca="false">COVAR(F2:F16,L2:L16)</f>
+      <c r="P19" s="0" t="n">
+        <f aca="false">COVAR(E2:E16,K2:K16)</f>
         <v>-10.56</v>
       </c>
-      <c r="AA19" s="0" t="n">
-        <f aca="false">COVAR(L2:L16,V2:V16)</f>
+      <c r="Z19" s="0" t="n">
+        <f aca="false">COVAR(K2:K16,U2:U16)</f>
         <v>0.0833333333333333</v>
       </c>
-      <c r="AC19" s="0" t="n">
-        <f aca="false">COVAR(V2:V16,F2:F16)</f>
+      <c r="AB19" s="0" t="n">
+        <f aca="false">COVAR(U2:U16,E2:E16)</f>
         <v>-5.20833333333333</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>42</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>43</v>
       </c>
@@ -2097,4 +2098,1597 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG4" activeCellId="0" sqref="AG4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">SUM(C$2:C$5)/COUNT(C$2:C$5)</f>
+        <v>165.5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">C2-D2</f>
+        <v>68.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">(E2-F2)^2</f>
+        <v>4692.25</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">SUM(I$2:I$5)/COUNT(I$2:I$5)</f>
+        <v>6.75</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">I2-J2</f>
+        <v>-0.75</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">(K2-L2)^2</f>
+        <v>0.5625</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">(E2-F2)*(K2-L2)</f>
+        <v>-51.375</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">P2/N2</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>533.375</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">SUM(S$2:S$5)/COUNT(S$2:S$5)</f>
+        <v>6.5</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <f aca="false">S2-T2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <f aca="false">(U2-V2)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <f aca="false">(K2-L2)*(U2-V2)</f>
+        <v>0.375</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <f aca="false">(E2-F2)*(U2-V2)</f>
+        <v>-34.25</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <f aca="false">AB2/Z2</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>587.375</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">SUM(C$2:C$5)/COUNT(C$2:C$5)</f>
+        <v>165.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">C3-D3</f>
+        <v>-20.5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">(E3-F3)^2</f>
+        <v>420.25</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">SUM(I$2:I$5)/COUNT(I$2:I$5)</f>
+        <v>6.75</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">I3-J3</f>
+        <v>0.25</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">(K3-L3)^2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">(E3-F3)*(K3-L3)</f>
+        <v>-5.125</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">P3/N3</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>533.375</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">I2</f>
+        <v>6</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">SUM(S$2:S$5)/COUNT(S$2:S$5)</f>
+        <v>6.5</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">S3-T3</f>
+        <v>-0.5</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <f aca="false">(U3-V3)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <f aca="false">(K3-L3)*(U3-V3)</f>
+        <v>-0.125</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <f aca="false">(E3-F3)*(U3-V3)</f>
+        <v>10.25</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <f aca="false">AB3/Z3</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>587.375</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">SUM(C$2:C$5)/COUNT(C$2:C$5)</f>
+        <v>165.5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">C4-D4</f>
+        <v>-20.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">(E4-F4)^2</f>
+        <v>420.25</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">SUM(I$2:I$5)/COUNT(I$2:I$5)</f>
+        <v>6.75</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">I4-J4</f>
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">(K4-L4)^2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">(E4-F4)*(K4-L4)</f>
+        <v>-5.125</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">P4/N4</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>533.375</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">I3</f>
+        <v>7</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">SUM(S$2:S$5)/COUNT(S$2:S$5)</f>
+        <v>6.5</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">S4-T4</f>
+        <v>0.5</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <f aca="false">(U4-V4)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <f aca="false">(K4-L4)*(U4-V4)</f>
+        <v>0.125</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <f aca="false">(E4-F4)*(U4-V4)</f>
+        <v>-10.25</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <f aca="false">AB4/Z4</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>587.375</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">SUM(C$2:C$5)/COUNT(C$2:C$5)</f>
+        <v>165.5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">C5-D5</f>
+        <v>-27.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">(E5-F5)^2</f>
+        <v>756.25</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">SUM(I$2:I$5)/COUNT(I$2:I$5)</f>
+        <v>6.75</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">I5-J5</f>
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">(K5-L5)^2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">(E5-F5)*(K5-L5)</f>
+        <v>-6.875</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">P5/N5</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>533.375</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">I4</f>
+        <v>7</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">SUM(S$2:S$5)/COUNT(S$2:S$5)</f>
+        <v>6.5</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">S5-T5</f>
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <f aca="false">(U5-V5)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <f aca="false">(K5-L5)*(U5-V5)</f>
+        <v>0.125</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <f aca="false">(E5-F5)*(U5-V5)</f>
+        <v>-13.75</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <f aca="false">AB5/Z5</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>587.375</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">SUM(C$6:C$9)/COUNT(C$6:C$9)</f>
+        <v>27.75</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">C6-D6</f>
+        <v>13.25</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">(E6-F6)^2</f>
+        <v>175.5625</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">SUM(I$6:I$9)/COUNT(I$6:I$9)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">I6-J6</f>
+        <v>-0.75</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">(K6-L6)^2</f>
+        <v>0.5625</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">(E6-F6)*(K6-L6)</f>
+        <v>-9.9375</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">P6/N6</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>68.625</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">SUM(S$6:S$9)/COUNT(S$6:S$9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">S6-T6</f>
+        <v>-0.5</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <f aca="false">(U6-V6)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <f aca="false">(K6-L6)*(U6-V6)</f>
+        <v>0.375</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <f aca="false">(E6-F6)*(U6-V6)</f>
+        <v>-6.625</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <f aca="false">AB6/Z6</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>74.625</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">SUM(C$6:C$9)/COUNT(C$6:C$9)</f>
+        <v>27.75</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">C7-D7</f>
+        <v>1.25</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">(E7-F7)^2</f>
+        <v>1.5625</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">SUM(I$6:I$9)/COUNT(I$6:I$9)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">I7-J7</f>
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">(K7-L7)^2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">(E7-F7)*(K7-L7)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">P7/N7</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>68.625</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">I6</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">SUM(S$6:S$9)/COUNT(S$6:S$9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">S7-T7</f>
+        <v>-0.5</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <f aca="false">(U7-V7)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <f aca="false">(K7-L7)*(U7-V7)</f>
+        <v>-0.125</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <f aca="false">(E7-F7)*(U7-V7)</f>
+        <v>-0.625</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <f aca="false">AB7/Z7</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>74.625</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">SUM(C$6:C$9)/COUNT(C$6:C$9)</f>
+        <v>27.75</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">C8-D8</f>
+        <v>-10.75</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">(E8-F8)^2</f>
+        <v>115.5625</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">SUM(I$6:I$9)/COUNT(I$6:I$9)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">I8-J8</f>
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">(K8-L8)^2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">(E8-F8)*(K8-L8)</f>
+        <v>-2.6875</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">P8/N8</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>68.625</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <f aca="false">I7</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">SUM(S$6:S$9)/COUNT(S$6:S$9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">S8-T8</f>
+        <v>0.5</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <f aca="false">(U8-V8)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <f aca="false">(K8-L8)*(U8-V8)</f>
+        <v>0.125</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <f aca="false">(E8-F8)*(U8-V8)</f>
+        <v>-5.375</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <f aca="false">AB8/Z8</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>74.625</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">SUM(C$6:C$9)/COUNT(C$6:C$9)</f>
+        <v>27.75</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">C9-D9</f>
+        <v>-3.75</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">(E9-F9)^2</f>
+        <v>14.0625</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">SUM(I$6:I$9)/COUNT(I$6:I$9)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">I9-J9</f>
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">(K9-L9)^2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">(E9-F9)*(K9-L9)</f>
+        <v>-0.9375</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">P9/N9</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>68.625</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false">I8</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">SUM(S$6:S$9)/COUNT(S$6:S$9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">S9-T9</f>
+        <v>0.5</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <f aca="false">(U9-V9)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <f aca="false">(K9-L9)*(U9-V9)</f>
+        <v>0.125</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <f aca="false">(E9-F9)*(U9-V9)</f>
+        <v>-1.875</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <f aca="false">AB9/Z9</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>74.625</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">SUM(C$10:C$13)/COUNT(C$10:C$13)</f>
+        <v>66.25</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">C10-D10</f>
+        <v>8.75</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">(E10-F10)^2</f>
+        <v>76.5625</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">SUM(I$10:I$13)/COUNT(I$10:I$13)</f>
+        <v>3</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">I10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">(K10-L10)^2</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">(E10-F10)*(K10-L10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">P10/N10</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>229.75</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">SUM(S$10:S$13)/COUNT(S$10:S$13)</f>
+        <v>3</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">S10-T10</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <f aca="false">(U10-V10)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <f aca="false">(K10-L10)*(U10-V10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <f aca="false">(E10-F10)*(U10-V10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <f aca="false">AB10/Z10</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>253.75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">SUM(C$10:C$13)/COUNT(C$10:C$13)</f>
+        <v>66.25</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">C11-D11</f>
+        <v>-7.25</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">(E11-F11)^2</f>
+        <v>52.5625</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">SUM(I$10:I$13)/COUNT(I$10:I$13)</f>
+        <v>3</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">I11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">(K11-L11)^2</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">(E11-F11)*(K11-L11)</f>
+        <v>-0</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">P11/N11</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>229.75</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">I10</f>
+        <v>3</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">SUM(S$10:S$13)/COUNT(S$10:S$13)</f>
+        <v>3</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">S11-T11</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <f aca="false">(U11-V11)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <f aca="false">(K11-L11)*(U11-V11)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <f aca="false">(E11-F11)*(U11-V11)</f>
+        <v>-0</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <f aca="false">AB11/Z11</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>253.75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">SUM(C$10:C$13)/COUNT(C$10:C$13)</f>
+        <v>66.25</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">C12-D12</f>
+        <v>-7.25</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">(E12-F12)^2</f>
+        <v>52.5625</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">SUM(I$10:I$13)/COUNT(I$10:I$13)</f>
+        <v>3</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">I12-J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">(K12-L12)^2</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">(E12-F12)*(K12-L12)</f>
+        <v>-0</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">P12/N12</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>229.75</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">I11</f>
+        <v>3</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">SUM(S$10:S$13)/COUNT(S$10:S$13)</f>
+        <v>3</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">S12-T12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <f aca="false">(U12-V12)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <f aca="false">(K12-L12)*(U12-V12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <f aca="false">(E12-F12)*(U12-V12)</f>
+        <v>-0</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <f aca="false">AB12/Z12</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>253.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">SUM(C$10:C$13)/COUNT(C$10:C$13)</f>
+        <v>66.25</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">C13-D13</f>
+        <v>5.75</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">SUM(E$2:E$13)/COUNT(E$2:E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">(E13-F13)^2</f>
+        <v>33.0625</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">SUM(G$2:G$13)/COUNT(G$2:G$13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">SUM(I$10:I$13)/COUNT(I$10:I$13)</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">I13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">SUM(K$2:K$13)/COUNT(K$2:K$13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">(K13-L13)^2</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">SUM(M$2:M$13)/COUNT(M$2:M$13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">(E13-F13)*(K13-L13)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">SUM(O$2:O$13)/COUNT(O$2:O$13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">P13/N13</f>
+        <v>-54.5</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*Q$2:Q$13)</f>
+        <v>229.75</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">I12</f>
+        <v>3</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">SUM(S$10:S$13)/COUNT(S$10:S$13)</f>
+        <v>3</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">S13-T13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">SUM(U$2:U$13)/COUNT(U$2:U$13)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <f aca="false">(U13-V13)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <f aca="false">SUM(W$2:W$13)/COUNT(W$2:W$13)</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <f aca="false">(K13-L13)*(U13-V13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <f aca="false">SUM(Y$2:Y$13)/COUNT(Y$2:Y$13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <f aca="false">(E13-F13)*(U13-V13)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <f aca="false">SUM(AA$2:AA$13)/COUNT(AA$2:AA$13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <f aca="false">AB13/Z13</f>
+        <v>-62.5</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <f aca="false">D$2:D$13-(J$2:J$13*AC$2:AC$13)</f>
+        <v>253.75</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">_xlfn.VAR.P(E2:E13)</f>
+        <v>567.541666666667</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">_xlfn.VAR.P(K2:K13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">COVAR(E2:E13,K2:K13)</f>
+        <v>-6.8125</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <f aca="false">COVAR(K2:K13,U2:U13)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <f aca="false">COVAR(U2:U13,E2:E13)</f>
+        <v>-5.20833333333333</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>